--- a/Data/EC/NIT-9006431439.xlsx
+++ b/Data/EC/NIT-9006431439.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C3C5CE1-F98F-414A-864A-6F8C3442EAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{282FB0B4-6AFB-4960-B734-70264729CEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BF694D93-9C33-4DA9-A697-11252A99BAFF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{39FC4462-EB10-4D05-B357-D148ED13C242}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="53">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,88 +71,97 @@
     <t>RAFAEL ANTONIO MARIN GUERRERO</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
     <t>2308</t>
   </si>
   <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
     <t>CC</t>
   </si>
   <si>
+    <t>1001832933</t>
+  </si>
+  <si>
+    <t>PIERINA SERGE PEREZ</t>
+  </si>
+  <si>
+    <t>1002189028</t>
+  </si>
+  <si>
+    <t>ANGELLYS SARAIS PIANETA JULIO</t>
+  </si>
+  <si>
     <t>1049827991</t>
   </si>
   <si>
     <t>DIOMARA DIAZ HERRERA</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>1002189028</t>
-  </si>
-  <si>
-    <t>ANGELLYS SARAIS PIANETA JULIO</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -566,7 +575,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5B59EF3-7B1C-9AF2-0F02-857C33939184}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D478FD63-A6E8-BA95-1D30-CFF9DABE9231}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -917,8 +926,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855BDDB5-B406-433B-BB94-EA2390764A79}">
-  <dimension ref="B2:J50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB319001-34E4-4431-ABA2-B18003AA12A7}">
+  <dimension ref="B2:J59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -942,7 +951,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -987,7 +996,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1019,12 +1028,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1408840</v>
+        <v>1809120</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1035,17 +1044,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F13" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1072,13 +1081,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1543,22 +1552,22 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>30</v>
-      </c>
       <c r="F36" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G36" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1566,22 +1575,22 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="F37" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G37" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1598,7 +1607,7 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>46400</v>
@@ -1612,22 +1621,22 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G39" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1635,22 +1644,22 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F40" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G40" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1658,7 +1667,7 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>36</v>
@@ -1667,13 +1676,13 @@
         <v>37</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F41" s="18">
-        <v>56940</v>
+        <v>40000</v>
       </c>
       <c r="G41" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1681,7 +1690,7 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>36</v>
@@ -1690,13 +1699,13 @@
         <v>37</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="F42" s="18">
-        <v>56940</v>
+        <v>40000</v>
       </c>
       <c r="G42" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1704,78 +1713,285 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F43" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G43" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="22" t="s">
+      <c r="B44" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G44" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G45" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F44" s="24">
+      <c r="D46" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="18">
         <v>56940</v>
       </c>
-      <c r="G44" s="24">
+      <c r="G46" s="18">
         <v>1423500</v>
       </c>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="26"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G47" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G48" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="20"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="32"/>
-      <c r="H49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="B49" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G49" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="32"/>
-      <c r="H50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="B50" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G50" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G51" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G52" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G53" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="26"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B58" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="32"/>
+      <c r="H58" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B59" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" s="32"/>
+      <c r="H59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H58:J58"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9006431439.xlsx
+++ b/Data/EC/NIT-9006431439.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{282FB0B4-6AFB-4960-B734-70264729CEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5880D2E2-8036-4D9A-958B-CA487D769201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{39FC4462-EB10-4D05-B357-D148ED13C242}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{81691FF6-F018-4DA7-80B2-065FD6A82387}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="52">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,97 +71,94 @@
     <t>RAFAEL ANTONIO MARIN GUERRERO</t>
   </si>
   <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>1049827991</t>
+  </si>
+  <si>
+    <t>DIOMARA DIAZ HERRERA</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>1002189028</t>
+  </si>
+  <si>
+    <t>ANGELLYS SARAIS PIANETA JULIO</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>1001832933</t>
-  </si>
-  <si>
-    <t>PIERINA SERGE PEREZ</t>
-  </si>
-  <si>
-    <t>1002189028</t>
-  </si>
-  <si>
-    <t>ANGELLYS SARAIS PIANETA JULIO</t>
-  </si>
-  <si>
-    <t>1049827991</t>
-  </si>
-  <si>
-    <t>DIOMARA DIAZ HERRERA</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -260,7 +257,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -273,9 +272,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -475,23 +472,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,10 +516,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,7 +572,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D478FD63-A6E8-BA95-1D30-CFF9DABE9231}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4977CAC-AF0D-98AE-AFB6-308613BA89B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -926,8 +923,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB319001-34E4-4431-ABA2-B18003AA12A7}">
-  <dimension ref="B2:J59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C174EC-DFB1-4384-BEE3-F627154DB9D2}">
+  <dimension ref="B2:J56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -951,7 +948,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -996,7 +993,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1028,12 +1025,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1809120</v>
+        <v>1729400</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1044,17 +1041,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1081,13 +1078,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1552,22 +1549,22 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F36" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G36" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1584,7 +1581,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
         <v>46400</v>
@@ -1598,22 +1595,22 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F38" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G38" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1630,7 +1627,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" s="18">
         <v>46400</v>
@@ -1644,7 +1641,7 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>36</v>
@@ -1653,13 +1650,13 @@
         <v>37</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>40000</v>
+        <v>56940</v>
       </c>
       <c r="G40" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1667,22 +1664,22 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F41" s="18">
-        <v>40000</v>
+        <v>56940</v>
       </c>
       <c r="G41" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1690,22 +1687,22 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F42" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G42" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1713,7 +1710,7 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>36</v>
@@ -1722,13 +1719,13 @@
         <v>37</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>40000</v>
+        <v>56940</v>
       </c>
       <c r="G43" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1736,22 +1733,22 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F44" s="18">
-        <v>40000</v>
+        <v>56940</v>
       </c>
       <c r="G44" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1759,22 +1756,22 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F45" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G45" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1782,16 +1779,16 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D46" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F46" s="18">
         <v>56940</v>
@@ -1805,16 +1802,16 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D47" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F47" s="18">
         <v>56940</v>
@@ -1828,22 +1825,22 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F48" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G48" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1851,16 +1848,16 @@
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C49" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F49" s="18">
         <v>56940</v>
@@ -1873,125 +1870,56 @@
       <c r="J49" s="20"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="16" t="s">
+      <c r="B50" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="18">
+      <c r="F50" s="24">
         <v>56940</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G50" s="24">
         <v>1423500</v>
       </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G51" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G52" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G53" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="26"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B58" s="32" t="s">
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="26"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="32"/>
+      <c r="H55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="32"/>
+      <c r="H56" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="32"/>
-      <c r="H58" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C59" s="32"/>
-      <c r="H59" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H55:J55"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
